--- a/dataTest/choices2.xlsx
+++ b/dataTest/choices2.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\10526\PycharmProjects\Label--Crowdsourcing\dataTest\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\10526\IdeaProjects\Python\Label--Crowdsourcing\dataTest\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E1D1CAE-43BB-4FF6-8E07-FF05E5524493}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DF4A570-D128-49C9-A093-102E12BE41AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13152" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,21 +25,37 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
-  <si>
-    <t>这句话的情感是什么</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>平静</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>生气</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>高兴</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+  <si>
+    <t>这是猫还是狗？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>猫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>狗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>它的颜色是什么？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蓝色</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>白色</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄色</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黑色</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -365,32 +381,46 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A4"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.1" x14ac:dyDescent="0.5"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A2" t="s">
         <v>1</v>
       </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A3" t="s">
         <v>2</v>
       </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A4" t="s">
-        <v>3</v>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="B5" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
